--- a/RUSA/ga.xlsx
+++ b/RUSA/ga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24120" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1745,11 +1745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53569408"/>
-        <c:axId val="53545984"/>
+        <c:axId val="299062016"/>
+        <c:axId val="299063552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53569408"/>
+        <c:axId val="299062016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1761,12 +1761,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53545984"/>
+        <c:crossAx val="299063552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53545984"/>
+        <c:axId val="299063552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1778,7 +1778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53569408"/>
+        <c:crossAx val="299062016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,11 +2798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53290496"/>
-        <c:axId val="53288960"/>
+        <c:axId val="299377792"/>
+        <c:axId val="299379328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53290496"/>
+        <c:axId val="299377792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -2814,12 +2814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53288960"/>
+        <c:crossAx val="299379328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53288960"/>
+        <c:axId val="299379328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53290496"/>
+        <c:crossAx val="299377792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="4.000000000000001E-3"/>
@@ -2848,7 +2848,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2976,11 +2976,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103412864"/>
-        <c:axId val="103414784"/>
+        <c:axId val="299415808"/>
+        <c:axId val="299421696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103412864"/>
+        <c:axId val="299415808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103414784"/>
+        <c:crossAx val="299421696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103414784"/>
+        <c:axId val="299421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103412864"/>
+        <c:crossAx val="299415808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3020,7 +3020,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3148,11 +3148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66253184"/>
-        <c:axId val="66254720"/>
+        <c:axId val="299432960"/>
+        <c:axId val="299442944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66253184"/>
+        <c:axId val="299432960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66254720"/>
+        <c:crossAx val="299442944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3169,7 +3169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66254720"/>
+        <c:axId val="299442944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,7 +3180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66253184"/>
+        <c:crossAx val="299432960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3232,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3261,16 +3261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3292,15 +3292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3614,7 +3614,7 @@
   </sheetPr>
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -16733,7 +16733,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>